--- a/bots/crawl_ch/output/toilet_coop_2022-07-14.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-14.xlsx
@@ -531,29 +531,29 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6995914</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12Rol</t>
+          <t>30Rol</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -562,17 +562,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.47/1Rol</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -659,151 +659,151 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50ST</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.91/1Rol</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 2.95 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6995914</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
+          <t>Super Soft Premium Mandel feucht</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30Rol</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>50ST</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.47/1Rol</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1241,36 +1241,36 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1279,71 +1279,71 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.98/1Rol</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1352,42 +1352,42 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.98/1Rol</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1574,153 +1574,153 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>4489511</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4489511</t>
+          <t>3640534</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1978,50 +1978,50 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>4687972</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Taschentücher Strong 10x10 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.18/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2041,60 +2041,60 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
+          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4687972</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.18/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2114,17 +2114,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-14 07:02:36</t>
+          <t>2022-07-14 20:58:51</t>
         </is>
       </c>
     </row>
